--- a/SFM.xlsx
+++ b/SFM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F0103C-061F-48AC-A720-C3EF3F839948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6968E8-2649-494D-A1B0-E7BB231112C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{46A15A52-A01D-4F54-A213-9E6E7C9D5C24}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{46A15A52-A01D-4F54-A213-9E6E7C9D5C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,14 +174,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -195,6 +193,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,22 +228,23 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -570,33 +583,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5866C3-2AB3-45CC-8D58-32BAFDD9F1BD}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>164.28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="3">
@@ -606,8 +620,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="3">
@@ -615,8 +629,8 @@
         <v>16076.2140936</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="3">
@@ -626,8 +640,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="3">
@@ -638,8 +652,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="3">
@@ -656,25 +670,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1940D7C-014C-42D3-BA0D-58B1CBC999DE}">
   <dimension ref="A1:BM532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -700,51 +715,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>414</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <v>443</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
@@ -772,7 +787,7 @@
       <c r="BL3" s="3"/>
       <c r="BM3" s="3"/>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -837,8 +852,8 @@
       <c r="BL4" s="3"/>
       <c r="BM4" s="3"/>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="3">
@@ -909,8 +924,8 @@
       <c r="BL5" s="3"/>
       <c r="BM5" s="3"/>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="3">
@@ -981,36 +996,36 @@
       <c r="BL6" s="3"/>
       <c r="BM6" s="3"/>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>1883.808</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
         <v>2236.4360000000001</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -1053,8 +1068,8 @@
       <c r="BL7" s="3"/>
       <c r="BM7" s="3"/>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="3">
@@ -1125,8 +1140,8 @@
       <c r="BL8" s="3"/>
       <c r="BM8" s="3"/>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3">
@@ -1208,8 +1223,8 @@
       <c r="BL9" s="3"/>
       <c r="BM9" s="3"/>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3">
@@ -1280,8 +1295,8 @@
       <c r="BL10" s="3"/>
       <c r="BM10" s="3"/>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3">
@@ -1352,8 +1367,8 @@
       <c r="BL11" s="3"/>
       <c r="BM11" s="3"/>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3">
@@ -1424,8 +1439,8 @@
       <c r="BL12" s="3"/>
       <c r="BM12" s="3"/>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3">
@@ -1507,8 +1522,8 @@
       <c r="BL13" s="3"/>
       <c r="BM13" s="3"/>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="3">
@@ -1579,8 +1594,8 @@
       <c r="BL14" s="3"/>
       <c r="BM14" s="3"/>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="3">
@@ -1662,8 +1677,8 @@
       <c r="BL15" s="3"/>
       <c r="BM15" s="3"/>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="3">
@@ -1734,8 +1749,8 @@
       <c r="BL16" s="3"/>
       <c r="BM16" s="3"/>
     </row>
-    <row r="17" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3">
@@ -1817,7 +1832,7 @@
       <c r="BL17" s="3"/>
       <c r="BM17" s="3"/>
     </row>
-    <row r="18" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:65" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1882,39 +1897,39 @@
       <c r="BL18" s="3"/>
       <c r="BM18" s="3"/>
     </row>
-    <row r="19" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <f t="shared" ref="C19:F19" si="4">+C17/C20</f>
         <v>1.1289093805344776</v>
       </c>
-      <c r="D19" s="7" t="e">
+      <c r="D19" s="8" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="7" t="e">
+      <c r="E19" s="8" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="7" t="e">
+      <c r="F19" s="8" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="8">
         <f>+G17/G20</f>
         <v>1.8269888468291098</v>
       </c>
-      <c r="H19" s="7" t="e">
+      <c r="H19" s="8" t="e">
         <f t="shared" ref="H19:J19" si="5">+H17/H20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="7" t="e">
+      <c r="I19" s="8" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="7" t="e">
+      <c r="J19" s="8" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -1974,8 +1989,8 @@
       <c r="BL19" s="3"/>
       <c r="BM19" s="3"/>
     </row>
-    <row r="20" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="3">
@@ -2046,7 +2061,7 @@
       <c r="BL20" s="3"/>
       <c r="BM20" s="3"/>
     </row>
-    <row r="21" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:65" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2111,8 +2126,8 @@
       <c r="BL21" s="3"/>
       <c r="BM21" s="3"/>
     </row>
-    <row r="22" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="3"/>
@@ -2191,8 +2206,8 @@
       <c r="BL22" s="3"/>
       <c r="BM22" s="3"/>
     </row>
-    <row r="23" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="3"/>
@@ -2271,8 +2286,8 @@
       <c r="BL23" s="3"/>
       <c r="BM23" s="3"/>
     </row>
-    <row r="24" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="3"/>
@@ -2351,27 +2366,27 @@
       <c r="BL24" s="3"/>
       <c r="BM24" s="3"/>
     </row>
-    <row r="25" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="8">
+      <c r="G25" s="10">
         <f t="shared" si="8"/>
         <v>0.18718892795868802</v>
       </c>
-      <c r="H25" s="8" t="e">
+      <c r="H25" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="8" t="e">
+      <c r="I25" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="8" t="e">
+      <c r="J25" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -2431,12 +2446,12 @@
       <c r="BL25" s="3"/>
       <c r="BM25" s="3"/>
     </row>
-    <row r="26" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" ref="C26:G26" si="9">+C9/C7</f>
+        <f t="shared" ref="C26:F26" si="9">+C9/C7</f>
         <v>0.38343238801406521</v>
       </c>
       <c r="D26" s="9" t="e">
@@ -2523,12 +2538,12 @@
       <c r="BL26" s="3"/>
       <c r="BM26" s="3"/>
     </row>
-    <row r="27" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="9">
-        <f t="shared" ref="C27:G27" si="12">+C13/C7</f>
+        <f t="shared" ref="C27:F27" si="12">+C13/C7</f>
         <v>7.8705473169240273E-2</v>
       </c>
       <c r="D27" s="9" t="e">
@@ -2615,12 +2630,12 @@
       <c r="BL27" s="3"/>
       <c r="BM27" s="3"/>
     </row>
-    <row r="28" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="9">
-        <f t="shared" ref="C28:G28" si="15">+C16/C15</f>
+        <f t="shared" ref="C28:F28" si="15">+C16/C15</f>
         <v>0.22616786935055042</v>
       </c>
       <c r="D28" s="9" t="e">
@@ -2707,7 +2722,7 @@
       <c r="BL28" s="3"/>
       <c r="BM28" s="3"/>
     </row>
-    <row r="29" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:65" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2772,7 +2787,7 @@
       <c r="BL29" s="3"/>
       <c r="BM29" s="3"/>
     </row>
-    <row r="30" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:65" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2837,7 +2852,7 @@
       <c r="BL30" s="3"/>
       <c r="BM30" s="3"/>
     </row>
-    <row r="31" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:65" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2902,7 +2917,7 @@
       <c r="BL31" s="3"/>
       <c r="BM31" s="3"/>
     </row>
-    <row r="32" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:65" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2967,7 +2982,7 @@
       <c r="BL32" s="3"/>
       <c r="BM32" s="3"/>
     </row>
-    <row r="33" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3032,7 +3047,7 @@
       <c r="BL33" s="3"/>
       <c r="BM33" s="3"/>
     </row>
-    <row r="34" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -3097,7 +3112,7 @@
       <c r="BL34" s="3"/>
       <c r="BM34" s="3"/>
     </row>
-    <row r="35" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -3162,7 +3177,7 @@
       <c r="BL35" s="3"/>
       <c r="BM35" s="3"/>
     </row>
-    <row r="36" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -3227,7 +3242,7 @@
       <c r="BL36" s="3"/>
       <c r="BM36" s="3"/>
     </row>
-    <row r="37" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3292,7 +3307,7 @@
       <c r="BL37" s="3"/>
       <c r="BM37" s="3"/>
     </row>
-    <row r="38" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3357,7 +3372,7 @@
       <c r="BL38" s="3"/>
       <c r="BM38" s="3"/>
     </row>
-    <row r="39" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3422,7 +3437,7 @@
       <c r="BL39" s="3"/>
       <c r="BM39" s="3"/>
     </row>
-    <row r="40" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3487,7 +3502,7 @@
       <c r="BL40" s="3"/>
       <c r="BM40" s="3"/>
     </row>
-    <row r="41" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3552,7 +3567,7 @@
       <c r="BL41" s="3"/>
       <c r="BM41" s="3"/>
     </row>
-    <row r="42" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3617,7 +3632,7 @@
       <c r="BL42" s="3"/>
       <c r="BM42" s="3"/>
     </row>
-    <row r="43" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3682,7 +3697,7 @@
       <c r="BL43" s="3"/>
       <c r="BM43" s="3"/>
     </row>
-    <row r="44" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3747,7 +3762,7 @@
       <c r="BL44" s="3"/>
       <c r="BM44" s="3"/>
     </row>
-    <row r="45" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3812,7 +3827,7 @@
       <c r="BL45" s="3"/>
       <c r="BM45" s="3"/>
     </row>
-    <row r="46" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3877,7 +3892,7 @@
       <c r="BL46" s="3"/>
       <c r="BM46" s="3"/>
     </row>
-    <row r="47" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3942,7 +3957,7 @@
       <c r="BL47" s="3"/>
       <c r="BM47" s="3"/>
     </row>
-    <row r="48" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4007,7 +4022,7 @@
       <c r="BL48" s="3"/>
       <c r="BM48" s="3"/>
     </row>
-    <row r="49" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4072,7 +4087,7 @@
       <c r="BL49" s="3"/>
       <c r="BM49" s="3"/>
     </row>
-    <row r="50" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4137,7 +4152,7 @@
       <c r="BL50" s="3"/>
       <c r="BM50" s="3"/>
     </row>
-    <row r="51" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4202,7 +4217,7 @@
       <c r="BL51" s="3"/>
       <c r="BM51" s="3"/>
     </row>
-    <row r="52" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4267,7 +4282,7 @@
       <c r="BL52" s="3"/>
       <c r="BM52" s="3"/>
     </row>
-    <row r="53" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4332,7 +4347,7 @@
       <c r="BL53" s="3"/>
       <c r="BM53" s="3"/>
     </row>
-    <row r="54" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4397,7 +4412,7 @@
       <c r="BL54" s="3"/>
       <c r="BM54" s="3"/>
     </row>
-    <row r="55" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4462,7 +4477,7 @@
       <c r="BL55" s="3"/>
       <c r="BM55" s="3"/>
     </row>
-    <row r="56" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4527,7 +4542,7 @@
       <c r="BL56" s="3"/>
       <c r="BM56" s="3"/>
     </row>
-    <row r="57" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4592,7 +4607,7 @@
       <c r="BL57" s="3"/>
       <c r="BM57" s="3"/>
     </row>
-    <row r="58" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4657,7 +4672,7 @@
       <c r="BL58" s="3"/>
       <c r="BM58" s="3"/>
     </row>
-    <row r="59" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4722,7 +4737,7 @@
       <c r="BL59" s="3"/>
       <c r="BM59" s="3"/>
     </row>
-    <row r="60" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4787,7 +4802,7 @@
       <c r="BL60" s="3"/>
       <c r="BM60" s="3"/>
     </row>
-    <row r="61" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4852,7 +4867,7 @@
       <c r="BL61" s="3"/>
       <c r="BM61" s="3"/>
     </row>
-    <row r="62" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4917,7 +4932,7 @@
       <c r="BL62" s="3"/>
       <c r="BM62" s="3"/>
     </row>
-    <row r="63" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4982,7 +4997,7 @@
       <c r="BL63" s="3"/>
       <c r="BM63" s="3"/>
     </row>
-    <row r="64" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5047,7 +5062,7 @@
       <c r="BL64" s="3"/>
       <c r="BM64" s="3"/>
     </row>
-    <row r="65" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5112,7 +5127,7 @@
       <c r="BL65" s="3"/>
       <c r="BM65" s="3"/>
     </row>
-    <row r="66" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5177,7 +5192,7 @@
       <c r="BL66" s="3"/>
       <c r="BM66" s="3"/>
     </row>
-    <row r="67" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5242,7 +5257,7 @@
       <c r="BL67" s="3"/>
       <c r="BM67" s="3"/>
     </row>
-    <row r="68" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5307,7 +5322,7 @@
       <c r="BL68" s="3"/>
       <c r="BM68" s="3"/>
     </row>
-    <row r="69" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5372,7 +5387,7 @@
       <c r="BL69" s="3"/>
       <c r="BM69" s="3"/>
     </row>
-    <row r="70" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5437,7 +5452,7 @@
       <c r="BL70" s="3"/>
       <c r="BM70" s="3"/>
     </row>
-    <row r="71" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5502,7 +5517,7 @@
       <c r="BL71" s="3"/>
       <c r="BM71" s="3"/>
     </row>
-    <row r="72" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5567,7 +5582,7 @@
       <c r="BL72" s="3"/>
       <c r="BM72" s="3"/>
     </row>
-    <row r="73" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5632,7 +5647,7 @@
       <c r="BL73" s="3"/>
       <c r="BM73" s="3"/>
     </row>
-    <row r="74" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5697,7 +5712,7 @@
       <c r="BL74" s="3"/>
       <c r="BM74" s="3"/>
     </row>
-    <row r="75" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5762,7 +5777,7 @@
       <c r="BL75" s="3"/>
       <c r="BM75" s="3"/>
     </row>
-    <row r="76" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5827,7 +5842,7 @@
       <c r="BL76" s="3"/>
       <c r="BM76" s="3"/>
     </row>
-    <row r="77" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5892,7 +5907,7 @@
       <c r="BL77" s="3"/>
       <c r="BM77" s="3"/>
     </row>
-    <row r="78" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5957,7 +5972,7 @@
       <c r="BL78" s="3"/>
       <c r="BM78" s="3"/>
     </row>
-    <row r="79" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -6022,7 +6037,7 @@
       <c r="BL79" s="3"/>
       <c r="BM79" s="3"/>
     </row>
-    <row r="80" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -6087,7 +6102,7 @@
       <c r="BL80" s="3"/>
       <c r="BM80" s="3"/>
     </row>
-    <row r="81" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -6152,7 +6167,7 @@
       <c r="BL81" s="3"/>
       <c r="BM81" s="3"/>
     </row>
-    <row r="82" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -6217,7 +6232,7 @@
       <c r="BL82" s="3"/>
       <c r="BM82" s="3"/>
     </row>
-    <row r="83" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -6282,7 +6297,7 @@
       <c r="BL83" s="3"/>
       <c r="BM83" s="3"/>
     </row>
-    <row r="84" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -6347,7 +6362,7 @@
       <c r="BL84" s="3"/>
       <c r="BM84" s="3"/>
     </row>
-    <row r="85" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -6412,7 +6427,7 @@
       <c r="BL85" s="3"/>
       <c r="BM85" s="3"/>
     </row>
-    <row r="86" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6477,7 +6492,7 @@
       <c r="BL86" s="3"/>
       <c r="BM86" s="3"/>
     </row>
-    <row r="87" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6542,7 +6557,7 @@
       <c r="BL87" s="3"/>
       <c r="BM87" s="3"/>
     </row>
-    <row r="88" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6607,7 +6622,7 @@
       <c r="BL88" s="3"/>
       <c r="BM88" s="3"/>
     </row>
-    <row r="89" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6672,7 +6687,7 @@
       <c r="BL89" s="3"/>
       <c r="BM89" s="3"/>
     </row>
-    <row r="90" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6737,7 +6752,7 @@
       <c r="BL90" s="3"/>
       <c r="BM90" s="3"/>
     </row>
-    <row r="91" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6802,7 +6817,7 @@
       <c r="BL91" s="3"/>
       <c r="BM91" s="3"/>
     </row>
-    <row r="92" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6867,7 +6882,7 @@
       <c r="BL92" s="3"/>
       <c r="BM92" s="3"/>
     </row>
-    <row r="93" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6932,7 +6947,7 @@
       <c r="BL93" s="3"/>
       <c r="BM93" s="3"/>
     </row>
-    <row r="94" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6997,7 +7012,7 @@
       <c r="BL94" s="3"/>
       <c r="BM94" s="3"/>
     </row>
-    <row r="95" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -7062,7 +7077,7 @@
       <c r="BL95" s="3"/>
       <c r="BM95" s="3"/>
     </row>
-    <row r="96" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -7127,7 +7142,7 @@
       <c r="BL96" s="3"/>
       <c r="BM96" s="3"/>
     </row>
-    <row r="97" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -7192,7 +7207,7 @@
       <c r="BL97" s="3"/>
       <c r="BM97" s="3"/>
     </row>
-    <row r="98" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -7257,7 +7272,7 @@
       <c r="BL98" s="3"/>
       <c r="BM98" s="3"/>
     </row>
-    <row r="99" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -7322,7 +7337,7 @@
       <c r="BL99" s="3"/>
       <c r="BM99" s="3"/>
     </row>
-    <row r="100" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -7387,7 +7402,7 @@
       <c r="BL100" s="3"/>
       <c r="BM100" s="3"/>
     </row>
-    <row r="101" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7452,7 +7467,7 @@
       <c r="BL101" s="3"/>
       <c r="BM101" s="3"/>
     </row>
-    <row r="102" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -7517,7 +7532,7 @@
       <c r="BL102" s="3"/>
       <c r="BM102" s="3"/>
     </row>
-    <row r="103" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -7582,7 +7597,7 @@
       <c r="BL103" s="3"/>
       <c r="BM103" s="3"/>
     </row>
-    <row r="104" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7647,7 +7662,7 @@
       <c r="BL104" s="3"/>
       <c r="BM104" s="3"/>
     </row>
-    <row r="105" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7712,7 +7727,7 @@
       <c r="BL105" s="3"/>
       <c r="BM105" s="3"/>
     </row>
-    <row r="106" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7777,7 +7792,7 @@
       <c r="BL106" s="3"/>
       <c r="BM106" s="3"/>
     </row>
-    <row r="107" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -7842,7 +7857,7 @@
       <c r="BL107" s="3"/>
       <c r="BM107" s="3"/>
     </row>
-    <row r="108" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -7907,7 +7922,7 @@
       <c r="BL108" s="3"/>
       <c r="BM108" s="3"/>
     </row>
-    <row r="109" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -7972,7 +7987,7 @@
       <c r="BL109" s="3"/>
       <c r="BM109" s="3"/>
     </row>
-    <row r="110" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -8037,7 +8052,7 @@
       <c r="BL110" s="3"/>
       <c r="BM110" s="3"/>
     </row>
-    <row r="111" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -8102,7 +8117,7 @@
       <c r="BL111" s="3"/>
       <c r="BM111" s="3"/>
     </row>
-    <row r="112" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -8167,7 +8182,7 @@
       <c r="BL112" s="3"/>
       <c r="BM112" s="3"/>
     </row>
-    <row r="113" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -8232,7 +8247,7 @@
       <c r="BL113" s="3"/>
       <c r="BM113" s="3"/>
     </row>
-    <row r="114" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -8297,7 +8312,7 @@
       <c r="BL114" s="3"/>
       <c r="BM114" s="3"/>
     </row>
-    <row r="115" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -8362,7 +8377,7 @@
       <c r="BL115" s="3"/>
       <c r="BM115" s="3"/>
     </row>
-    <row r="116" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -8427,7 +8442,7 @@
       <c r="BL116" s="3"/>
       <c r="BM116" s="3"/>
     </row>
-    <row r="117" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -8492,7 +8507,7 @@
       <c r="BL117" s="3"/>
       <c r="BM117" s="3"/>
     </row>
-    <row r="118" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -8557,7 +8572,7 @@
       <c r="BL118" s="3"/>
       <c r="BM118" s="3"/>
     </row>
-    <row r="119" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -8622,7 +8637,7 @@
       <c r="BL119" s="3"/>
       <c r="BM119" s="3"/>
     </row>
-    <row r="120" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -8687,7 +8702,7 @@
       <c r="BL120" s="3"/>
       <c r="BM120" s="3"/>
     </row>
-    <row r="121" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -8752,7 +8767,7 @@
       <c r="BL121" s="3"/>
       <c r="BM121" s="3"/>
     </row>
-    <row r="122" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -8817,7 +8832,7 @@
       <c r="BL122" s="3"/>
       <c r="BM122" s="3"/>
     </row>
-    <row r="123" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -8882,7 +8897,7 @@
       <c r="BL123" s="3"/>
       <c r="BM123" s="3"/>
     </row>
-    <row r="124" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -8947,7 +8962,7 @@
       <c r="BL124" s="3"/>
       <c r="BM124" s="3"/>
     </row>
-    <row r="125" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -9012,7 +9027,7 @@
       <c r="BL125" s="3"/>
       <c r="BM125" s="3"/>
     </row>
-    <row r="126" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -9077,7 +9092,7 @@
       <c r="BL126" s="3"/>
       <c r="BM126" s="3"/>
     </row>
-    <row r="127" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -9142,7 +9157,7 @@
       <c r="BL127" s="3"/>
       <c r="BM127" s="3"/>
     </row>
-    <row r="128" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -9207,7 +9222,7 @@
       <c r="BL128" s="3"/>
       <c r="BM128" s="3"/>
     </row>
-    <row r="129" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -9272,7 +9287,7 @@
       <c r="BL129" s="3"/>
       <c r="BM129" s="3"/>
     </row>
-    <row r="130" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -9337,7 +9352,7 @@
       <c r="BL130" s="3"/>
       <c r="BM130" s="3"/>
     </row>
-    <row r="131" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -9402,7 +9417,7 @@
       <c r="BL131" s="3"/>
       <c r="BM131" s="3"/>
     </row>
-    <row r="132" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -9467,7 +9482,7 @@
       <c r="BL132" s="3"/>
       <c r="BM132" s="3"/>
     </row>
-    <row r="133" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -9532,7 +9547,7 @@
       <c r="BL133" s="3"/>
       <c r="BM133" s="3"/>
     </row>
-    <row r="134" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -9597,7 +9612,7 @@
       <c r="BL134" s="3"/>
       <c r="BM134" s="3"/>
     </row>
-    <row r="135" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -9662,7 +9677,7 @@
       <c r="BL135" s="3"/>
       <c r="BM135" s="3"/>
     </row>
-    <row r="136" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -9727,7 +9742,7 @@
       <c r="BL136" s="3"/>
       <c r="BM136" s="3"/>
     </row>
-    <row r="137" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -9792,7 +9807,7 @@
       <c r="BL137" s="3"/>
       <c r="BM137" s="3"/>
     </row>
-    <row r="138" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -9857,7 +9872,7 @@
       <c r="BL138" s="3"/>
       <c r="BM138" s="3"/>
     </row>
-    <row r="139" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -9922,7 +9937,7 @@
       <c r="BL139" s="3"/>
       <c r="BM139" s="3"/>
     </row>
-    <row r="140" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -9987,7 +10002,7 @@
       <c r="BL140" s="3"/>
       <c r="BM140" s="3"/>
     </row>
-    <row r="141" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -10052,7 +10067,7 @@
       <c r="BL141" s="3"/>
       <c r="BM141" s="3"/>
     </row>
-    <row r="142" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -10117,7 +10132,7 @@
       <c r="BL142" s="3"/>
       <c r="BM142" s="3"/>
     </row>
-    <row r="143" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -10182,7 +10197,7 @@
       <c r="BL143" s="3"/>
       <c r="BM143" s="3"/>
     </row>
-    <row r="144" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -10247,7 +10262,7 @@
       <c r="BL144" s="3"/>
       <c r="BM144" s="3"/>
     </row>
-    <row r="145" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -10312,7 +10327,7 @@
       <c r="BL145" s="3"/>
       <c r="BM145" s="3"/>
     </row>
-    <row r="146" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -10377,7 +10392,7 @@
       <c r="BL146" s="3"/>
       <c r="BM146" s="3"/>
     </row>
-    <row r="147" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -10442,7 +10457,7 @@
       <c r="BL147" s="3"/>
       <c r="BM147" s="3"/>
     </row>
-    <row r="148" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -10507,7 +10522,7 @@
       <c r="BL148" s="3"/>
       <c r="BM148" s="3"/>
     </row>
-    <row r="149" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -10572,7 +10587,7 @@
       <c r="BL149" s="3"/>
       <c r="BM149" s="3"/>
     </row>
-    <row r="150" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -10637,7 +10652,7 @@
       <c r="BL150" s="3"/>
       <c r="BM150" s="3"/>
     </row>
-    <row r="151" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -10702,7 +10717,7 @@
       <c r="BL151" s="3"/>
       <c r="BM151" s="3"/>
     </row>
-    <row r="152" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -10767,7 +10782,7 @@
       <c r="BL152" s="3"/>
       <c r="BM152" s="3"/>
     </row>
-    <row r="153" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -10832,7 +10847,7 @@
       <c r="BL153" s="3"/>
       <c r="BM153" s="3"/>
     </row>
-    <row r="154" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -10897,7 +10912,7 @@
       <c r="BL154" s="3"/>
       <c r="BM154" s="3"/>
     </row>
-    <row r="155" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -10962,7 +10977,7 @@
       <c r="BL155" s="3"/>
       <c r="BM155" s="3"/>
     </row>
-    <row r="156" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -11027,7 +11042,7 @@
       <c r="BL156" s="3"/>
       <c r="BM156" s="3"/>
     </row>
-    <row r="157" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -11092,7 +11107,7 @@
       <c r="BL157" s="3"/>
       <c r="BM157" s="3"/>
     </row>
-    <row r="158" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -11157,7 +11172,7 @@
       <c r="BL158" s="3"/>
       <c r="BM158" s="3"/>
     </row>
-    <row r="159" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -11222,7 +11237,7 @@
       <c r="BL159" s="3"/>
       <c r="BM159" s="3"/>
     </row>
-    <row r="160" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -11287,7 +11302,7 @@
       <c r="BL160" s="3"/>
       <c r="BM160" s="3"/>
     </row>
-    <row r="161" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -11352,7 +11367,7 @@
       <c r="BL161" s="3"/>
       <c r="BM161" s="3"/>
     </row>
-    <row r="162" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -11417,7 +11432,7 @@
       <c r="BL162" s="3"/>
       <c r="BM162" s="3"/>
     </row>
-    <row r="163" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -11482,7 +11497,7 @@
       <c r="BL163" s="3"/>
       <c r="BM163" s="3"/>
     </row>
-    <row r="164" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -11547,7 +11562,7 @@
       <c r="BL164" s="3"/>
       <c r="BM164" s="3"/>
     </row>
-    <row r="165" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -11612,7 +11627,7 @@
       <c r="BL165" s="3"/>
       <c r="BM165" s="3"/>
     </row>
-    <row r="166" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -11677,7 +11692,7 @@
       <c r="BL166" s="3"/>
       <c r="BM166" s="3"/>
     </row>
-    <row r="167" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -11742,7 +11757,7 @@
       <c r="BL167" s="3"/>
       <c r="BM167" s="3"/>
     </row>
-    <row r="168" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -11807,7 +11822,7 @@
       <c r="BL168" s="3"/>
       <c r="BM168" s="3"/>
     </row>
-    <row r="169" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -11872,7 +11887,7 @@
       <c r="BL169" s="3"/>
       <c r="BM169" s="3"/>
     </row>
-    <row r="170" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -11937,7 +11952,7 @@
       <c r="BL170" s="3"/>
       <c r="BM170" s="3"/>
     </row>
-    <row r="171" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -12002,7 +12017,7 @@
       <c r="BL171" s="3"/>
       <c r="BM171" s="3"/>
     </row>
-    <row r="172" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -12067,7 +12082,7 @@
       <c r="BL172" s="3"/>
       <c r="BM172" s="3"/>
     </row>
-    <row r="173" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -12132,7 +12147,7 @@
       <c r="BL173" s="3"/>
       <c r="BM173" s="3"/>
     </row>
-    <row r="174" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -12197,7 +12212,7 @@
       <c r="BL174" s="3"/>
       <c r="BM174" s="3"/>
     </row>
-    <row r="175" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -12262,7 +12277,7 @@
       <c r="BL175" s="3"/>
       <c r="BM175" s="3"/>
     </row>
-    <row r="176" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -12327,7 +12342,7 @@
       <c r="BL176" s="3"/>
       <c r="BM176" s="3"/>
     </row>
-    <row r="177" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -12392,7 +12407,7 @@
       <c r="BL177" s="3"/>
       <c r="BM177" s="3"/>
     </row>
-    <row r="178" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -12457,7 +12472,7 @@
       <c r="BL178" s="3"/>
       <c r="BM178" s="3"/>
     </row>
-    <row r="179" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -12522,7 +12537,7 @@
       <c r="BL179" s="3"/>
       <c r="BM179" s="3"/>
     </row>
-    <row r="180" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -12587,7 +12602,7 @@
       <c r="BL180" s="3"/>
       <c r="BM180" s="3"/>
     </row>
-    <row r="181" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -12652,7 +12667,7 @@
       <c r="BL181" s="3"/>
       <c r="BM181" s="3"/>
     </row>
-    <row r="182" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -12717,7 +12732,7 @@
       <c r="BL182" s="3"/>
       <c r="BM182" s="3"/>
     </row>
-    <row r="183" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -12782,7 +12797,7 @@
       <c r="BL183" s="3"/>
       <c r="BM183" s="3"/>
     </row>
-    <row r="184" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -12847,7 +12862,7 @@
       <c r="BL184" s="3"/>
       <c r="BM184" s="3"/>
     </row>
-    <row r="185" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -12912,7 +12927,7 @@
       <c r="BL185" s="3"/>
       <c r="BM185" s="3"/>
     </row>
-    <row r="186" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -12977,7 +12992,7 @@
       <c r="BL186" s="3"/>
       <c r="BM186" s="3"/>
     </row>
-    <row r="187" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -13042,7 +13057,7 @@
       <c r="BL187" s="3"/>
       <c r="BM187" s="3"/>
     </row>
-    <row r="188" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -13107,7 +13122,7 @@
       <c r="BL188" s="3"/>
       <c r="BM188" s="3"/>
     </row>
-    <row r="189" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -13172,7 +13187,7 @@
       <c r="BL189" s="3"/>
       <c r="BM189" s="3"/>
     </row>
-    <row r="190" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -13237,7 +13252,7 @@
       <c r="BL190" s="3"/>
       <c r="BM190" s="3"/>
     </row>
-    <row r="191" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -13302,7 +13317,7 @@
       <c r="BL191" s="3"/>
       <c r="BM191" s="3"/>
     </row>
-    <row r="192" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -13367,7 +13382,7 @@
       <c r="BL192" s="3"/>
       <c r="BM192" s="3"/>
     </row>
-    <row r="193" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -13432,7 +13447,7 @@
       <c r="BL193" s="3"/>
       <c r="BM193" s="3"/>
     </row>
-    <row r="194" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -13497,7 +13512,7 @@
       <c r="BL194" s="3"/>
       <c r="BM194" s="3"/>
     </row>
-    <row r="195" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -13562,7 +13577,7 @@
       <c r="BL195" s="3"/>
       <c r="BM195" s="3"/>
     </row>
-    <row r="196" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -13627,7 +13642,7 @@
       <c r="BL196" s="3"/>
       <c r="BM196" s="3"/>
     </row>
-    <row r="197" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -13692,7 +13707,7 @@
       <c r="BL197" s="3"/>
       <c r="BM197" s="3"/>
     </row>
-    <row r="198" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -13757,7 +13772,7 @@
       <c r="BL198" s="3"/>
       <c r="BM198" s="3"/>
     </row>
-    <row r="199" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -13822,7 +13837,7 @@
       <c r="BL199" s="3"/>
       <c r="BM199" s="3"/>
     </row>
-    <row r="200" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -13887,7 +13902,7 @@
       <c r="BL200" s="3"/>
       <c r="BM200" s="3"/>
     </row>
-    <row r="201" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -13952,7 +13967,7 @@
       <c r="BL201" s="3"/>
       <c r="BM201" s="3"/>
     </row>
-    <row r="202" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -14017,7 +14032,7 @@
       <c r="BL202" s="3"/>
       <c r="BM202" s="3"/>
     </row>
-    <row r="203" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -14082,7 +14097,7 @@
       <c r="BL203" s="3"/>
       <c r="BM203" s="3"/>
     </row>
-    <row r="204" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -14147,7 +14162,7 @@
       <c r="BL204" s="3"/>
       <c r="BM204" s="3"/>
     </row>
-    <row r="205" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -14212,7 +14227,7 @@
       <c r="BL205" s="3"/>
       <c r="BM205" s="3"/>
     </row>
-    <row r="206" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -14277,7 +14292,7 @@
       <c r="BL206" s="3"/>
       <c r="BM206" s="3"/>
     </row>
-    <row r="207" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -14342,7 +14357,7 @@
       <c r="BL207" s="3"/>
       <c r="BM207" s="3"/>
     </row>
-    <row r="208" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -14407,7 +14422,7 @@
       <c r="BL208" s="3"/>
       <c r="BM208" s="3"/>
     </row>
-    <row r="209" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -14472,7 +14487,7 @@
       <c r="BL209" s="3"/>
       <c r="BM209" s="3"/>
     </row>
-    <row r="210" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -14537,7 +14552,7 @@
       <c r="BL210" s="3"/>
       <c r="BM210" s="3"/>
     </row>
-    <row r="211" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -14602,7 +14617,7 @@
       <c r="BL211" s="3"/>
       <c r="BM211" s="3"/>
     </row>
-    <row r="212" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -14667,7 +14682,7 @@
       <c r="BL212" s="3"/>
       <c r="BM212" s="3"/>
     </row>
-    <row r="213" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -14732,7 +14747,7 @@
       <c r="BL213" s="3"/>
       <c r="BM213" s="3"/>
     </row>
-    <row r="214" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -14797,7 +14812,7 @@
       <c r="BL214" s="3"/>
       <c r="BM214" s="3"/>
     </row>
-    <row r="215" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -14862,7 +14877,7 @@
       <c r="BL215" s="3"/>
       <c r="BM215" s="3"/>
     </row>
-    <row r="216" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -14927,7 +14942,7 @@
       <c r="BL216" s="3"/>
       <c r="BM216" s="3"/>
     </row>
-    <row r="217" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -14992,7 +15007,7 @@
       <c r="BL217" s="3"/>
       <c r="BM217" s="3"/>
     </row>
-    <row r="218" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -15057,7 +15072,7 @@
       <c r="BL218" s="3"/>
       <c r="BM218" s="3"/>
     </row>
-    <row r="219" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -15122,7 +15137,7 @@
       <c r="BL219" s="3"/>
       <c r="BM219" s="3"/>
     </row>
-    <row r="220" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -15187,7 +15202,7 @@
       <c r="BL220" s="3"/>
       <c r="BM220" s="3"/>
     </row>
-    <row r="221" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -15252,7 +15267,7 @@
       <c r="BL221" s="3"/>
       <c r="BM221" s="3"/>
     </row>
-    <row r="222" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -15317,7 +15332,7 @@
       <c r="BL222" s="3"/>
       <c r="BM222" s="3"/>
     </row>
-    <row r="223" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -15382,7 +15397,7 @@
       <c r="BL223" s="3"/>
       <c r="BM223" s="3"/>
     </row>
-    <row r="224" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -15447,7 +15462,7 @@
       <c r="BL224" s="3"/>
       <c r="BM224" s="3"/>
     </row>
-    <row r="225" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -15512,7 +15527,7 @@
       <c r="BL225" s="3"/>
       <c r="BM225" s="3"/>
     </row>
-    <row r="226" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -15577,7 +15592,7 @@
       <c r="BL226" s="3"/>
       <c r="BM226" s="3"/>
     </row>
-    <row r="227" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -15642,7 +15657,7 @@
       <c r="BL227" s="3"/>
       <c r="BM227" s="3"/>
     </row>
-    <row r="228" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -15707,7 +15722,7 @@
       <c r="BL228" s="3"/>
       <c r="BM228" s="3"/>
     </row>
-    <row r="229" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -15772,7 +15787,7 @@
       <c r="BL229" s="3"/>
       <c r="BM229" s="3"/>
     </row>
-    <row r="230" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -15837,7 +15852,7 @@
       <c r="BL230" s="3"/>
       <c r="BM230" s="3"/>
     </row>
-    <row r="231" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -15902,7 +15917,7 @@
       <c r="BL231" s="3"/>
       <c r="BM231" s="3"/>
     </row>
-    <row r="232" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -15967,7 +15982,7 @@
       <c r="BL232" s="3"/>
       <c r="BM232" s="3"/>
     </row>
-    <row r="233" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -16032,7 +16047,7 @@
       <c r="BL233" s="3"/>
       <c r="BM233" s="3"/>
     </row>
-    <row r="234" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -16097,7 +16112,7 @@
       <c r="BL234" s="3"/>
       <c r="BM234" s="3"/>
     </row>
-    <row r="235" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -16162,7 +16177,7 @@
       <c r="BL235" s="3"/>
       <c r="BM235" s="3"/>
     </row>
-    <row r="236" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -16227,7 +16242,7 @@
       <c r="BL236" s="3"/>
       <c r="BM236" s="3"/>
     </row>
-    <row r="237" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -16292,7 +16307,7 @@
       <c r="BL237" s="3"/>
       <c r="BM237" s="3"/>
     </row>
-    <row r="238" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -16357,7 +16372,7 @@
       <c r="BL238" s="3"/>
       <c r="BM238" s="3"/>
     </row>
-    <row r="239" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -16422,7 +16437,7 @@
       <c r="BL239" s="3"/>
       <c r="BM239" s="3"/>
     </row>
-    <row r="240" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -16487,7 +16502,7 @@
       <c r="BL240" s="3"/>
       <c r="BM240" s="3"/>
     </row>
-    <row r="241" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -16552,7 +16567,7 @@
       <c r="BL241" s="3"/>
       <c r="BM241" s="3"/>
     </row>
-    <row r="242" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -16617,7 +16632,7 @@
       <c r="BL242" s="3"/>
       <c r="BM242" s="3"/>
     </row>
-    <row r="243" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -16682,7 +16697,7 @@
       <c r="BL243" s="3"/>
       <c r="BM243" s="3"/>
     </row>
-    <row r="244" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -16747,7 +16762,7 @@
       <c r="BL244" s="3"/>
       <c r="BM244" s="3"/>
     </row>
-    <row r="245" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -16812,7 +16827,7 @@
       <c r="BL245" s="3"/>
       <c r="BM245" s="3"/>
     </row>
-    <row r="246" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -16877,7 +16892,7 @@
       <c r="BL246" s="3"/>
       <c r="BM246" s="3"/>
     </row>
-    <row r="247" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -16942,7 +16957,7 @@
       <c r="BL247" s="3"/>
       <c r="BM247" s="3"/>
     </row>
-    <row r="248" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -17007,7 +17022,7 @@
       <c r="BL248" s="3"/>
       <c r="BM248" s="3"/>
     </row>
-    <row r="249" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -17072,7 +17087,7 @@
       <c r="BL249" s="3"/>
       <c r="BM249" s="3"/>
     </row>
-    <row r="250" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -17137,7 +17152,7 @@
       <c r="BL250" s="3"/>
       <c r="BM250" s="3"/>
     </row>
-    <row r="251" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -17202,7 +17217,7 @@
       <c r="BL251" s="3"/>
       <c r="BM251" s="3"/>
     </row>
-    <row r="252" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -17267,7 +17282,7 @@
       <c r="BL252" s="3"/>
       <c r="BM252" s="3"/>
     </row>
-    <row r="253" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -17332,7 +17347,7 @@
       <c r="BL253" s="3"/>
       <c r="BM253" s="3"/>
     </row>
-    <row r="254" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -17397,7 +17412,7 @@
       <c r="BL254" s="3"/>
       <c r="BM254" s="3"/>
     </row>
-    <row r="255" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -17462,7 +17477,7 @@
       <c r="BL255" s="3"/>
       <c r="BM255" s="3"/>
     </row>
-    <row r="256" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -17527,7 +17542,7 @@
       <c r="BL256" s="3"/>
       <c r="BM256" s="3"/>
     </row>
-    <row r="257" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -17592,7 +17607,7 @@
       <c r="BL257" s="3"/>
       <c r="BM257" s="3"/>
     </row>
-    <row r="258" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -17657,7 +17672,7 @@
       <c r="BL258" s="3"/>
       <c r="BM258" s="3"/>
     </row>
-    <row r="259" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -17722,7 +17737,7 @@
       <c r="BL259" s="3"/>
       <c r="BM259" s="3"/>
     </row>
-    <row r="260" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -17787,7 +17802,7 @@
       <c r="BL260" s="3"/>
       <c r="BM260" s="3"/>
     </row>
-    <row r="261" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -17852,7 +17867,7 @@
       <c r="BL261" s="3"/>
       <c r="BM261" s="3"/>
     </row>
-    <row r="262" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -17917,7 +17932,7 @@
       <c r="BL262" s="3"/>
       <c r="BM262" s="3"/>
     </row>
-    <row r="263" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -17982,7 +17997,7 @@
       <c r="BL263" s="3"/>
       <c r="BM263" s="3"/>
     </row>
-    <row r="264" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -18047,7 +18062,7 @@
       <c r="BL264" s="3"/>
       <c r="BM264" s="3"/>
     </row>
-    <row r="265" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -18112,7 +18127,7 @@
       <c r="BL265" s="3"/>
       <c r="BM265" s="3"/>
     </row>
-    <row r="266" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -18177,7 +18192,7 @@
       <c r="BL266" s="3"/>
       <c r="BM266" s="3"/>
     </row>
-    <row r="267" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -18242,7 +18257,7 @@
       <c r="BL267" s="3"/>
       <c r="BM267" s="3"/>
     </row>
-    <row r="268" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -18307,7 +18322,7 @@
       <c r="BL268" s="3"/>
       <c r="BM268" s="3"/>
     </row>
-    <row r="269" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -18372,7 +18387,7 @@
       <c r="BL269" s="3"/>
       <c r="BM269" s="3"/>
     </row>
-    <row r="270" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -18437,7 +18452,7 @@
       <c r="BL270" s="3"/>
       <c r="BM270" s="3"/>
     </row>
-    <row r="271" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -18502,7 +18517,7 @@
       <c r="BL271" s="3"/>
       <c r="BM271" s="3"/>
     </row>
-    <row r="272" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -18567,7 +18582,7 @@
       <c r="BL272" s="3"/>
       <c r="BM272" s="3"/>
     </row>
-    <row r="273" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -18632,7 +18647,7 @@
       <c r="BL273" s="3"/>
       <c r="BM273" s="3"/>
     </row>
-    <row r="274" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -18697,7 +18712,7 @@
       <c r="BL274" s="3"/>
       <c r="BM274" s="3"/>
     </row>
-    <row r="275" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -18762,7 +18777,7 @@
       <c r="BL275" s="3"/>
       <c r="BM275" s="3"/>
     </row>
-    <row r="276" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -18827,7 +18842,7 @@
       <c r="BL276" s="3"/>
       <c r="BM276" s="3"/>
     </row>
-    <row r="277" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -18892,7 +18907,7 @@
       <c r="BL277" s="3"/>
       <c r="BM277" s="3"/>
     </row>
-    <row r="278" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -18957,7 +18972,7 @@
       <c r="BL278" s="3"/>
       <c r="BM278" s="3"/>
     </row>
-    <row r="279" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -19022,7 +19037,7 @@
       <c r="BL279" s="3"/>
       <c r="BM279" s="3"/>
     </row>
-    <row r="280" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -19087,7 +19102,7 @@
       <c r="BL280" s="3"/>
       <c r="BM280" s="3"/>
     </row>
-    <row r="281" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -19152,7 +19167,7 @@
       <c r="BL281" s="3"/>
       <c r="BM281" s="3"/>
     </row>
-    <row r="282" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -19217,7 +19232,7 @@
       <c r="BL282" s="3"/>
       <c r="BM282" s="3"/>
     </row>
-    <row r="283" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -19282,7 +19297,7 @@
       <c r="BL283" s="3"/>
       <c r="BM283" s="3"/>
     </row>
-    <row r="284" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -19347,7 +19362,7 @@
       <c r="BL284" s="3"/>
       <c r="BM284" s="3"/>
     </row>
-    <row r="285" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -19412,7 +19427,7 @@
       <c r="BL285" s="3"/>
       <c r="BM285" s="3"/>
     </row>
-    <row r="286" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -19477,7 +19492,7 @@
       <c r="BL286" s="3"/>
       <c r="BM286" s="3"/>
     </row>
-    <row r="287" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -19542,7 +19557,7 @@
       <c r="BL287" s="3"/>
       <c r="BM287" s="3"/>
     </row>
-    <row r="288" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -19607,7 +19622,7 @@
       <c r="BL288" s="3"/>
       <c r="BM288" s="3"/>
     </row>
-    <row r="289" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -19672,7 +19687,7 @@
       <c r="BL289" s="3"/>
       <c r="BM289" s="3"/>
     </row>
-    <row r="290" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -19737,7 +19752,7 @@
       <c r="BL290" s="3"/>
       <c r="BM290" s="3"/>
     </row>
-    <row r="291" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -19802,7 +19817,7 @@
       <c r="BL291" s="3"/>
       <c r="BM291" s="3"/>
     </row>
-    <row r="292" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -19867,7 +19882,7 @@
       <c r="BL292" s="3"/>
       <c r="BM292" s="3"/>
     </row>
-    <row r="293" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -19932,7 +19947,7 @@
       <c r="BL293" s="3"/>
       <c r="BM293" s="3"/>
     </row>
-    <row r="294" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -19997,7 +20012,7 @@
       <c r="BL294" s="3"/>
       <c r="BM294" s="3"/>
     </row>
-    <row r="295" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -20062,7 +20077,7 @@
       <c r="BL295" s="3"/>
       <c r="BM295" s="3"/>
     </row>
-    <row r="296" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -20127,7 +20142,7 @@
       <c r="BL296" s="3"/>
       <c r="BM296" s="3"/>
     </row>
-    <row r="297" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -20192,7 +20207,7 @@
       <c r="BL297" s="3"/>
       <c r="BM297" s="3"/>
     </row>
-    <row r="298" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -20257,7 +20272,7 @@
       <c r="BL298" s="3"/>
       <c r="BM298" s="3"/>
     </row>
-    <row r="299" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -20322,7 +20337,7 @@
       <c r="BL299" s="3"/>
       <c r="BM299" s="3"/>
     </row>
-    <row r="300" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -20387,7 +20402,7 @@
       <c r="BL300" s="3"/>
       <c r="BM300" s="3"/>
     </row>
-    <row r="301" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -20452,7 +20467,7 @@
       <c r="BL301" s="3"/>
       <c r="BM301" s="3"/>
     </row>
-    <row r="302" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -20517,7 +20532,7 @@
       <c r="BL302" s="3"/>
       <c r="BM302" s="3"/>
     </row>
-    <row r="303" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -20582,7 +20597,7 @@
       <c r="BL303" s="3"/>
       <c r="BM303" s="3"/>
     </row>
-    <row r="304" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -20647,7 +20662,7 @@
       <c r="BL304" s="3"/>
       <c r="BM304" s="3"/>
     </row>
-    <row r="305" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -20712,7 +20727,7 @@
       <c r="BL305" s="3"/>
       <c r="BM305" s="3"/>
     </row>
-    <row r="306" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -20777,7 +20792,7 @@
       <c r="BL306" s="3"/>
       <c r="BM306" s="3"/>
     </row>
-    <row r="307" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -20842,7 +20857,7 @@
       <c r="BL307" s="3"/>
       <c r="BM307" s="3"/>
     </row>
-    <row r="308" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -20907,7 +20922,7 @@
       <c r="BL308" s="3"/>
       <c r="BM308" s="3"/>
     </row>
-    <row r="309" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -20972,7 +20987,7 @@
       <c r="BL309" s="3"/>
       <c r="BM309" s="3"/>
     </row>
-    <row r="310" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -21037,7 +21052,7 @@
       <c r="BL310" s="3"/>
       <c r="BM310" s="3"/>
     </row>
-    <row r="311" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -21102,7 +21117,7 @@
       <c r="BL311" s="3"/>
       <c r="BM311" s="3"/>
     </row>
-    <row r="312" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -21167,7 +21182,7 @@
       <c r="BL312" s="3"/>
       <c r="BM312" s="3"/>
     </row>
-    <row r="313" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -21232,7 +21247,7 @@
       <c r="BL313" s="3"/>
       <c r="BM313" s="3"/>
     </row>
-    <row r="314" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -21297,7 +21312,7 @@
       <c r="BL314" s="3"/>
       <c r="BM314" s="3"/>
     </row>
-    <row r="315" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -21362,7 +21377,7 @@
       <c r="BL315" s="3"/>
       <c r="BM315" s="3"/>
     </row>
-    <row r="316" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -21427,7 +21442,7 @@
       <c r="BL316" s="3"/>
       <c r="BM316" s="3"/>
     </row>
-    <row r="317" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -21492,7 +21507,7 @@
       <c r="BL317" s="3"/>
       <c r="BM317" s="3"/>
     </row>
-    <row r="318" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -21557,7 +21572,7 @@
       <c r="BL318" s="3"/>
       <c r="BM318" s="3"/>
     </row>
-    <row r="319" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -21622,7 +21637,7 @@
       <c r="BL319" s="3"/>
       <c r="BM319" s="3"/>
     </row>
-    <row r="320" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -21687,7 +21702,7 @@
       <c r="BL320" s="3"/>
       <c r="BM320" s="3"/>
     </row>
-    <row r="321" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -21752,7 +21767,7 @@
       <c r="BL321" s="3"/>
       <c r="BM321" s="3"/>
     </row>
-    <row r="322" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -21817,7 +21832,7 @@
       <c r="BL322" s="3"/>
       <c r="BM322" s="3"/>
     </row>
-    <row r="323" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -21882,7 +21897,7 @@
       <c r="BL323" s="3"/>
       <c r="BM323" s="3"/>
     </row>
-    <row r="324" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -21947,7 +21962,7 @@
       <c r="BL324" s="3"/>
       <c r="BM324" s="3"/>
     </row>
-    <row r="325" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -22012,7 +22027,7 @@
       <c r="BL325" s="3"/>
       <c r="BM325" s="3"/>
     </row>
-    <row r="326" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -22077,7 +22092,7 @@
       <c r="BL326" s="3"/>
       <c r="BM326" s="3"/>
     </row>
-    <row r="327" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -22142,7 +22157,7 @@
       <c r="BL327" s="3"/>
       <c r="BM327" s="3"/>
     </row>
-    <row r="328" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -22207,7 +22222,7 @@
       <c r="BL328" s="3"/>
       <c r="BM328" s="3"/>
     </row>
-    <row r="329" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -22272,7 +22287,7 @@
       <c r="BL329" s="3"/>
       <c r="BM329" s="3"/>
     </row>
-    <row r="330" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -22337,7 +22352,7 @@
       <c r="BL330" s="3"/>
       <c r="BM330" s="3"/>
     </row>
-    <row r="331" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -22402,7 +22417,7 @@
       <c r="BL331" s="3"/>
       <c r="BM331" s="3"/>
     </row>
-    <row r="332" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -22467,7 +22482,7 @@
       <c r="BL332" s="3"/>
       <c r="BM332" s="3"/>
     </row>
-    <row r="333" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -22532,7 +22547,7 @@
       <c r="BL333" s="3"/>
       <c r="BM333" s="3"/>
     </row>
-    <row r="334" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -22597,7 +22612,7 @@
       <c r="BL334" s="3"/>
       <c r="BM334" s="3"/>
     </row>
-    <row r="335" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -22662,7 +22677,7 @@
       <c r="BL335" s="3"/>
       <c r="BM335" s="3"/>
     </row>
-    <row r="336" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -22727,7 +22742,7 @@
       <c r="BL336" s="3"/>
       <c r="BM336" s="3"/>
     </row>
-    <row r="337" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -22792,7 +22807,7 @@
       <c r="BL337" s="3"/>
       <c r="BM337" s="3"/>
     </row>
-    <row r="338" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -22857,7 +22872,7 @@
       <c r="BL338" s="3"/>
       <c r="BM338" s="3"/>
     </row>
-    <row r="339" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -22922,7 +22937,7 @@
       <c r="BL339" s="3"/>
       <c r="BM339" s="3"/>
     </row>
-    <row r="340" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -22987,7 +23002,7 @@
       <c r="BL340" s="3"/>
       <c r="BM340" s="3"/>
     </row>
-    <row r="341" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -23052,7 +23067,7 @@
       <c r="BL341" s="3"/>
       <c r="BM341" s="3"/>
     </row>
-    <row r="342" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -23117,7 +23132,7 @@
       <c r="BL342" s="3"/>
       <c r="BM342" s="3"/>
     </row>
-    <row r="343" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -23182,7 +23197,7 @@
       <c r="BL343" s="3"/>
       <c r="BM343" s="3"/>
     </row>
-    <row r="344" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -23247,7 +23262,7 @@
       <c r="BL344" s="3"/>
       <c r="BM344" s="3"/>
     </row>
-    <row r="345" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -23312,7 +23327,7 @@
       <c r="BL345" s="3"/>
       <c r="BM345" s="3"/>
     </row>
-    <row r="346" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -23377,7 +23392,7 @@
       <c r="BL346" s="3"/>
       <c r="BM346" s="3"/>
     </row>
-    <row r="347" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -23442,7 +23457,7 @@
       <c r="BL347" s="3"/>
       <c r="BM347" s="3"/>
     </row>
-    <row r="348" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -23507,7 +23522,7 @@
       <c r="BL348" s="3"/>
       <c r="BM348" s="3"/>
     </row>
-    <row r="349" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -23572,7 +23587,7 @@
       <c r="BL349" s="3"/>
       <c r="BM349" s="3"/>
     </row>
-    <row r="350" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -23637,7 +23652,7 @@
       <c r="BL350" s="3"/>
       <c r="BM350" s="3"/>
     </row>
-    <row r="351" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -23702,7 +23717,7 @@
       <c r="BL351" s="3"/>
       <c r="BM351" s="3"/>
     </row>
-    <row r="352" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -23767,7 +23782,7 @@
       <c r="BL352" s="3"/>
       <c r="BM352" s="3"/>
     </row>
-    <row r="353" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -23832,7 +23847,7 @@
       <c r="BL353" s="3"/>
       <c r="BM353" s="3"/>
     </row>
-    <row r="354" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -23897,7 +23912,7 @@
       <c r="BL354" s="3"/>
       <c r="BM354" s="3"/>
     </row>
-    <row r="355" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -23962,7 +23977,7 @@
       <c r="BL355" s="3"/>
       <c r="BM355" s="3"/>
     </row>
-    <row r="356" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -24027,7 +24042,7 @@
       <c r="BL356" s="3"/>
       <c r="BM356" s="3"/>
     </row>
-    <row r="357" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -24092,7 +24107,7 @@
       <c r="BL357" s="3"/>
       <c r="BM357" s="3"/>
     </row>
-    <row r="358" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -24157,7 +24172,7 @@
       <c r="BL358" s="3"/>
       <c r="BM358" s="3"/>
     </row>
-    <row r="359" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -24222,7 +24237,7 @@
       <c r="BL359" s="3"/>
       <c r="BM359" s="3"/>
     </row>
-    <row r="360" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -24287,7 +24302,7 @@
       <c r="BL360" s="3"/>
       <c r="BM360" s="3"/>
     </row>
-    <row r="361" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -24352,7 +24367,7 @@
       <c r="BL361" s="3"/>
       <c r="BM361" s="3"/>
     </row>
-    <row r="362" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -24417,7 +24432,7 @@
       <c r="BL362" s="3"/>
       <c r="BM362" s="3"/>
     </row>
-    <row r="363" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -24482,7 +24497,7 @@
       <c r="BL363" s="3"/>
       <c r="BM363" s="3"/>
     </row>
-    <row r="364" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -24547,7 +24562,7 @@
       <c r="BL364" s="3"/>
       <c r="BM364" s="3"/>
     </row>
-    <row r="365" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -24612,7 +24627,7 @@
       <c r="BL365" s="3"/>
       <c r="BM365" s="3"/>
     </row>
-    <row r="366" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -24677,7 +24692,7 @@
       <c r="BL366" s="3"/>
       <c r="BM366" s="3"/>
     </row>
-    <row r="367" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -24742,7 +24757,7 @@
       <c r="BL367" s="3"/>
       <c r="BM367" s="3"/>
     </row>
-    <row r="368" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -24807,7 +24822,7 @@
       <c r="BL368" s="3"/>
       <c r="BM368" s="3"/>
     </row>
-    <row r="369" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -24872,7 +24887,7 @@
       <c r="BL369" s="3"/>
       <c r="BM369" s="3"/>
     </row>
-    <row r="370" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -24937,7 +24952,7 @@
       <c r="BL370" s="3"/>
       <c r="BM370" s="3"/>
     </row>
-    <row r="371" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -25002,7 +25017,7 @@
       <c r="BL371" s="3"/>
       <c r="BM371" s="3"/>
     </row>
-    <row r="372" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -25067,7 +25082,7 @@
       <c r="BL372" s="3"/>
       <c r="BM372" s="3"/>
     </row>
-    <row r="373" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -25132,7 +25147,7 @@
       <c r="BL373" s="3"/>
       <c r="BM373" s="3"/>
     </row>
-    <row r="374" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -25197,7 +25212,7 @@
       <c r="BL374" s="3"/>
       <c r="BM374" s="3"/>
     </row>
-    <row r="375" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -25262,7 +25277,7 @@
       <c r="BL375" s="3"/>
       <c r="BM375" s="3"/>
     </row>
-    <row r="376" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -25327,7 +25342,7 @@
       <c r="BL376" s="3"/>
       <c r="BM376" s="3"/>
     </row>
-    <row r="377" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -25392,7 +25407,7 @@
       <c r="BL377" s="3"/>
       <c r="BM377" s="3"/>
     </row>
-    <row r="378" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -25457,7 +25472,7 @@
       <c r="BL378" s="3"/>
       <c r="BM378" s="3"/>
     </row>
-    <row r="379" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -25522,7 +25537,7 @@
       <c r="BL379" s="3"/>
       <c r="BM379" s="3"/>
     </row>
-    <row r="380" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -25587,7 +25602,7 @@
       <c r="BL380" s="3"/>
       <c r="BM380" s="3"/>
     </row>
-    <row r="381" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -25652,7 +25667,7 @@
       <c r="BL381" s="3"/>
       <c r="BM381" s="3"/>
     </row>
-    <row r="382" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -25717,7 +25732,7 @@
       <c r="BL382" s="3"/>
       <c r="BM382" s="3"/>
     </row>
-    <row r="383" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -25782,7 +25797,7 @@
       <c r="BL383" s="3"/>
       <c r="BM383" s="3"/>
     </row>
-    <row r="384" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -25847,7 +25862,7 @@
       <c r="BL384" s="3"/>
       <c r="BM384" s="3"/>
     </row>
-    <row r="385" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -25912,7 +25927,7 @@
       <c r="BL385" s="3"/>
       <c r="BM385" s="3"/>
     </row>
-    <row r="386" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -25977,7 +25992,7 @@
       <c r="BL386" s="3"/>
       <c r="BM386" s="3"/>
     </row>
-    <row r="387" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -26042,7 +26057,7 @@
       <c r="BL387" s="3"/>
       <c r="BM387" s="3"/>
     </row>
-    <row r="388" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -26107,7 +26122,7 @@
       <c r="BL388" s="3"/>
       <c r="BM388" s="3"/>
     </row>
-    <row r="389" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -26172,7 +26187,7 @@
       <c r="BL389" s="3"/>
       <c r="BM389" s="3"/>
     </row>
-    <row r="390" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -26237,7 +26252,7 @@
       <c r="BL390" s="3"/>
       <c r="BM390" s="3"/>
     </row>
-    <row r="391" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -26302,7 +26317,7 @@
       <c r="BL391" s="3"/>
       <c r="BM391" s="3"/>
     </row>
-    <row r="392" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -26367,7 +26382,7 @@
       <c r="BL392" s="3"/>
       <c r="BM392" s="3"/>
     </row>
-    <row r="393" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -26432,7 +26447,7 @@
       <c r="BL393" s="3"/>
       <c r="BM393" s="3"/>
     </row>
-    <row r="394" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -26497,7 +26512,7 @@
       <c r="BL394" s="3"/>
       <c r="BM394" s="3"/>
     </row>
-    <row r="395" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -26562,7 +26577,7 @@
       <c r="BL395" s="3"/>
       <c r="BM395" s="3"/>
     </row>
-    <row r="396" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -26627,7 +26642,7 @@
       <c r="BL396" s="3"/>
       <c r="BM396" s="3"/>
     </row>
-    <row r="397" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -26692,7 +26707,7 @@
       <c r="BL397" s="3"/>
       <c r="BM397" s="3"/>
     </row>
-    <row r="398" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -26757,7 +26772,7 @@
       <c r="BL398" s="3"/>
       <c r="BM398" s="3"/>
     </row>
-    <row r="399" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -26822,7 +26837,7 @@
       <c r="BL399" s="3"/>
       <c r="BM399" s="3"/>
     </row>
-    <row r="400" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -26887,7 +26902,7 @@
       <c r="BL400" s="3"/>
       <c r="BM400" s="3"/>
     </row>
-    <row r="401" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -26952,7 +26967,7 @@
       <c r="BL401" s="3"/>
       <c r="BM401" s="3"/>
     </row>
-    <row r="402" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -27017,7 +27032,7 @@
       <c r="BL402" s="3"/>
       <c r="BM402" s="3"/>
     </row>
-    <row r="403" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -27082,7 +27097,7 @@
       <c r="BL403" s="3"/>
       <c r="BM403" s="3"/>
     </row>
-    <row r="404" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -27147,7 +27162,7 @@
       <c r="BL404" s="3"/>
       <c r="BM404" s="3"/>
     </row>
-    <row r="405" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -27212,7 +27227,7 @@
       <c r="BL405" s="3"/>
       <c r="BM405" s="3"/>
     </row>
-    <row r="406" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -27277,7 +27292,7 @@
       <c r="BL406" s="3"/>
       <c r="BM406" s="3"/>
     </row>
-    <row r="407" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -27342,7 +27357,7 @@
       <c r="BL407" s="3"/>
       <c r="BM407" s="3"/>
     </row>
-    <row r="408" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -27407,7 +27422,7 @@
       <c r="BL408" s="3"/>
       <c r="BM408" s="3"/>
     </row>
-    <row r="409" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -27472,7 +27487,7 @@
       <c r="BL409" s="3"/>
       <c r="BM409" s="3"/>
     </row>
-    <row r="410" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -27537,7 +27552,7 @@
       <c r="BL410" s="3"/>
       <c r="BM410" s="3"/>
     </row>
-    <row r="411" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -27602,7 +27617,7 @@
       <c r="BL411" s="3"/>
       <c r="BM411" s="3"/>
     </row>
-    <row r="412" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -27667,7 +27682,7 @@
       <c r="BL412" s="3"/>
       <c r="BM412" s="3"/>
     </row>
-    <row r="413" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -27732,7 +27747,7 @@
       <c r="BL413" s="3"/>
       <c r="BM413" s="3"/>
     </row>
-    <row r="414" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -27797,7 +27812,7 @@
       <c r="BL414" s="3"/>
       <c r="BM414" s="3"/>
     </row>
-    <row r="415" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -27862,7 +27877,7 @@
       <c r="BL415" s="3"/>
       <c r="BM415" s="3"/>
     </row>
-    <row r="416" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -27927,7 +27942,7 @@
       <c r="BL416" s="3"/>
       <c r="BM416" s="3"/>
     </row>
-    <row r="417" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -27992,7 +28007,7 @@
       <c r="BL417" s="3"/>
       <c r="BM417" s="3"/>
     </row>
-    <row r="418" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -28057,7 +28072,7 @@
       <c r="BL418" s="3"/>
       <c r="BM418" s="3"/>
     </row>
-    <row r="419" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -28122,7 +28137,7 @@
       <c r="BL419" s="3"/>
       <c r="BM419" s="3"/>
     </row>
-    <row r="420" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -28187,7 +28202,7 @@
       <c r="BL420" s="3"/>
       <c r="BM420" s="3"/>
     </row>
-    <row r="421" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -28252,7 +28267,7 @@
       <c r="BL421" s="3"/>
       <c r="BM421" s="3"/>
     </row>
-    <row r="422" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -28317,7 +28332,7 @@
       <c r="BL422" s="3"/>
       <c r="BM422" s="3"/>
     </row>
-    <row r="423" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -28382,7 +28397,7 @@
       <c r="BL423" s="3"/>
       <c r="BM423" s="3"/>
     </row>
-    <row r="424" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -28447,7 +28462,7 @@
       <c r="BL424" s="3"/>
       <c r="BM424" s="3"/>
     </row>
-    <row r="425" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -28512,7 +28527,7 @@
       <c r="BL425" s="3"/>
       <c r="BM425" s="3"/>
     </row>
-    <row r="426" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -28577,7 +28592,7 @@
       <c r="BL426" s="3"/>
       <c r="BM426" s="3"/>
     </row>
-    <row r="427" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -28642,7 +28657,7 @@
       <c r="BL427" s="3"/>
       <c r="BM427" s="3"/>
     </row>
-    <row r="428" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -28707,7 +28722,7 @@
       <c r="BL428" s="3"/>
       <c r="BM428" s="3"/>
     </row>
-    <row r="429" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -28772,7 +28787,7 @@
       <c r="BL429" s="3"/>
       <c r="BM429" s="3"/>
     </row>
-    <row r="430" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -28837,7 +28852,7 @@
       <c r="BL430" s="3"/>
       <c r="BM430" s="3"/>
     </row>
-    <row r="431" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -28902,7 +28917,7 @@
       <c r="BL431" s="3"/>
       <c r="BM431" s="3"/>
     </row>
-    <row r="432" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -28967,7 +28982,7 @@
       <c r="BL432" s="3"/>
       <c r="BM432" s="3"/>
     </row>
-    <row r="433" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -29032,7 +29047,7 @@
       <c r="BL433" s="3"/>
       <c r="BM433" s="3"/>
     </row>
-    <row r="434" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -29097,7 +29112,7 @@
       <c r="BL434" s="3"/>
       <c r="BM434" s="3"/>
     </row>
-    <row r="435" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -29162,7 +29177,7 @@
       <c r="BL435" s="3"/>
       <c r="BM435" s="3"/>
     </row>
-    <row r="436" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -29227,7 +29242,7 @@
       <c r="BL436" s="3"/>
       <c r="BM436" s="3"/>
     </row>
-    <row r="437" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -29292,7 +29307,7 @@
       <c r="BL437" s="3"/>
       <c r="BM437" s="3"/>
     </row>
-    <row r="438" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -29357,7 +29372,7 @@
       <c r="BL438" s="3"/>
       <c r="BM438" s="3"/>
     </row>
-    <row r="439" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -29422,7 +29437,7 @@
       <c r="BL439" s="3"/>
       <c r="BM439" s="3"/>
     </row>
-    <row r="440" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -29487,7 +29502,7 @@
       <c r="BL440" s="3"/>
       <c r="BM440" s="3"/>
     </row>
-    <row r="441" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -29552,7 +29567,7 @@
       <c r="BL441" s="3"/>
       <c r="BM441" s="3"/>
     </row>
-    <row r="442" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -29617,7 +29632,7 @@
       <c r="BL442" s="3"/>
       <c r="BM442" s="3"/>
     </row>
-    <row r="443" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -29682,7 +29697,7 @@
       <c r="BL443" s="3"/>
       <c r="BM443" s="3"/>
     </row>
-    <row r="444" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -29747,7 +29762,7 @@
       <c r="BL444" s="3"/>
       <c r="BM444" s="3"/>
     </row>
-    <row r="445" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -29812,7 +29827,7 @@
       <c r="BL445" s="3"/>
       <c r="BM445" s="3"/>
     </row>
-    <row r="446" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -29877,7 +29892,7 @@
       <c r="BL446" s="3"/>
       <c r="BM446" s="3"/>
     </row>
-    <row r="447" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -29942,7 +29957,7 @@
       <c r="BL447" s="3"/>
       <c r="BM447" s="3"/>
     </row>
-    <row r="448" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -30007,7 +30022,7 @@
       <c r="BL448" s="3"/>
       <c r="BM448" s="3"/>
     </row>
-    <row r="449" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -30072,7 +30087,7 @@
       <c r="BL449" s="3"/>
       <c r="BM449" s="3"/>
     </row>
-    <row r="450" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -30137,7 +30152,7 @@
       <c r="BL450" s="3"/>
       <c r="BM450" s="3"/>
     </row>
-    <row r="451" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -30202,7 +30217,7 @@
       <c r="BL451" s="3"/>
       <c r="BM451" s="3"/>
     </row>
-    <row r="452" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -30267,7 +30282,7 @@
       <c r="BL452" s="3"/>
       <c r="BM452" s="3"/>
     </row>
-    <row r="453" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -30332,7 +30347,7 @@
       <c r="BL453" s="3"/>
       <c r="BM453" s="3"/>
     </row>
-    <row r="454" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -30397,7 +30412,7 @@
       <c r="BL454" s="3"/>
       <c r="BM454" s="3"/>
     </row>
-    <row r="455" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -30462,7 +30477,7 @@
       <c r="BL455" s="3"/>
       <c r="BM455" s="3"/>
     </row>
-    <row r="456" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -30527,7 +30542,7 @@
       <c r="BL456" s="3"/>
       <c r="BM456" s="3"/>
     </row>
-    <row r="457" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -30592,7 +30607,7 @@
       <c r="BL457" s="3"/>
       <c r="BM457" s="3"/>
     </row>
-    <row r="458" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -30657,7 +30672,7 @@
       <c r="BL458" s="3"/>
       <c r="BM458" s="3"/>
     </row>
-    <row r="459" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -30722,7 +30737,7 @@
       <c r="BL459" s="3"/>
       <c r="BM459" s="3"/>
     </row>
-    <row r="460" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -30787,7 +30802,7 @@
       <c r="BL460" s="3"/>
       <c r="BM460" s="3"/>
     </row>
-    <row r="461" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -30852,7 +30867,7 @@
       <c r="BL461" s="3"/>
       <c r="BM461" s="3"/>
     </row>
-    <row r="462" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -30917,7 +30932,7 @@
       <c r="BL462" s="3"/>
       <c r="BM462" s="3"/>
     </row>
-    <row r="463" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -30982,7 +30997,7 @@
       <c r="BL463" s="3"/>
       <c r="BM463" s="3"/>
     </row>
-    <row r="464" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -31047,7 +31062,7 @@
       <c r="BL464" s="3"/>
       <c r="BM464" s="3"/>
     </row>
-    <row r="465" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -31112,7 +31127,7 @@
       <c r="BL465" s="3"/>
       <c r="BM465" s="3"/>
     </row>
-    <row r="466" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -31177,7 +31192,7 @@
       <c r="BL466" s="3"/>
       <c r="BM466" s="3"/>
     </row>
-    <row r="467" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -31242,7 +31257,7 @@
       <c r="BL467" s="3"/>
       <c r="BM467" s="3"/>
     </row>
-    <row r="468" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -31307,7 +31322,7 @@
       <c r="BL468" s="3"/>
       <c r="BM468" s="3"/>
     </row>
-    <row r="469" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -31372,7 +31387,7 @@
       <c r="BL469" s="3"/>
       <c r="BM469" s="3"/>
     </row>
-    <row r="470" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -31437,7 +31452,7 @@
       <c r="BL470" s="3"/>
       <c r="BM470" s="3"/>
     </row>
-    <row r="471" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -31502,7 +31517,7 @@
       <c r="BL471" s="3"/>
       <c r="BM471" s="3"/>
     </row>
-    <row r="472" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -31567,7 +31582,7 @@
       <c r="BL472" s="3"/>
       <c r="BM472" s="3"/>
     </row>
-    <row r="473" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -31632,7 +31647,7 @@
       <c r="BL473" s="3"/>
       <c r="BM473" s="3"/>
     </row>
-    <row r="474" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -31697,7 +31712,7 @@
       <c r="BL474" s="3"/>
       <c r="BM474" s="3"/>
     </row>
-    <row r="475" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -31762,7 +31777,7 @@
       <c r="BL475" s="3"/>
       <c r="BM475" s="3"/>
     </row>
-    <row r="476" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -31827,7 +31842,7 @@
       <c r="BL476" s="3"/>
       <c r="BM476" s="3"/>
     </row>
-    <row r="477" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -31892,7 +31907,7 @@
       <c r="BL477" s="3"/>
       <c r="BM477" s="3"/>
     </row>
-    <row r="478" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -31957,7 +31972,7 @@
       <c r="BL478" s="3"/>
       <c r="BM478" s="3"/>
     </row>
-    <row r="479" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -32022,7 +32037,7 @@
       <c r="BL479" s="3"/>
       <c r="BM479" s="3"/>
     </row>
-    <row r="480" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -32087,7 +32102,7 @@
       <c r="BL480" s="3"/>
       <c r="BM480" s="3"/>
     </row>
-    <row r="481" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -32152,7 +32167,7 @@
       <c r="BL481" s="3"/>
       <c r="BM481" s="3"/>
     </row>
-    <row r="482" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -32217,7 +32232,7 @@
       <c r="BL482" s="3"/>
       <c r="BM482" s="3"/>
     </row>
-    <row r="483" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -32282,7 +32297,7 @@
       <c r="BL483" s="3"/>
       <c r="BM483" s="3"/>
     </row>
-    <row r="484" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -32347,7 +32362,7 @@
       <c r="BL484" s="3"/>
       <c r="BM484" s="3"/>
     </row>
-    <row r="485" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -32412,7 +32427,7 @@
       <c r="BL485" s="3"/>
       <c r="BM485" s="3"/>
     </row>
-    <row r="486" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -32477,7 +32492,7 @@
       <c r="BL486" s="3"/>
       <c r="BM486" s="3"/>
     </row>
-    <row r="487" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -32542,7 +32557,7 @@
       <c r="BL487" s="3"/>
       <c r="BM487" s="3"/>
     </row>
-    <row r="488" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -32607,7 +32622,7 @@
       <c r="BL488" s="3"/>
       <c r="BM488" s="3"/>
     </row>
-    <row r="489" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -32672,7 +32687,7 @@
       <c r="BL489" s="3"/>
       <c r="BM489" s="3"/>
     </row>
-    <row r="490" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -32737,7 +32752,7 @@
       <c r="BL490" s="3"/>
       <c r="BM490" s="3"/>
     </row>
-    <row r="491" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -32802,7 +32817,7 @@
       <c r="BL491" s="3"/>
       <c r="BM491" s="3"/>
     </row>
-    <row r="492" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -32867,7 +32882,7 @@
       <c r="BL492" s="3"/>
       <c r="BM492" s="3"/>
     </row>
-    <row r="493" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -32932,7 +32947,7 @@
       <c r="BL493" s="3"/>
       <c r="BM493" s="3"/>
     </row>
-    <row r="494" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -32997,7 +33012,7 @@
       <c r="BL494" s="3"/>
       <c r="BM494" s="3"/>
     </row>
-    <row r="495" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
@@ -33062,7 +33077,7 @@
       <c r="BL495" s="3"/>
       <c r="BM495" s="3"/>
     </row>
-    <row r="496" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
@@ -33127,7 +33142,7 @@
       <c r="BL496" s="3"/>
       <c r="BM496" s="3"/>
     </row>
-    <row r="497" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
@@ -33192,7 +33207,7 @@
       <c r="BL497" s="3"/>
       <c r="BM497" s="3"/>
     </row>
-    <row r="498" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
@@ -33257,7 +33272,7 @@
       <c r="BL498" s="3"/>
       <c r="BM498" s="3"/>
     </row>
-    <row r="499" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
@@ -33322,7 +33337,7 @@
       <c r="BL499" s="3"/>
       <c r="BM499" s="3"/>
     </row>
-    <row r="500" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
@@ -33387,7 +33402,7 @@
       <c r="BL500" s="3"/>
       <c r="BM500" s="3"/>
     </row>
-    <row r="501" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
@@ -33452,7 +33467,7 @@
       <c r="BL501" s="3"/>
       <c r="BM501" s="3"/>
     </row>
-    <row r="502" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -33517,7 +33532,7 @@
       <c r="BL502" s="3"/>
       <c r="BM502" s="3"/>
     </row>
-    <row r="503" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
@@ -33582,7 +33597,7 @@
       <c r="BL503" s="3"/>
       <c r="BM503" s="3"/>
     </row>
-    <row r="504" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
@@ -33647,7 +33662,7 @@
       <c r="BL504" s="3"/>
       <c r="BM504" s="3"/>
     </row>
-    <row r="505" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
@@ -33712,7 +33727,7 @@
       <c r="BL505" s="3"/>
       <c r="BM505" s="3"/>
     </row>
-    <row r="506" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -33777,7 +33792,7 @@
       <c r="BL506" s="3"/>
       <c r="BM506" s="3"/>
     </row>
-    <row r="507" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
@@ -33842,7 +33857,7 @@
       <c r="BL507" s="3"/>
       <c r="BM507" s="3"/>
     </row>
-    <row r="508" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
@@ -33907,7 +33922,7 @@
       <c r="BL508" s="3"/>
       <c r="BM508" s="3"/>
     </row>
-    <row r="509" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
@@ -33972,7 +33987,7 @@
       <c r="BL509" s="3"/>
       <c r="BM509" s="3"/>
     </row>
-    <row r="510" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
@@ -34037,7 +34052,7 @@
       <c r="BL510" s="3"/>
       <c r="BM510" s="3"/>
     </row>
-    <row r="511" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
@@ -34102,7 +34117,7 @@
       <c r="BL511" s="3"/>
       <c r="BM511" s="3"/>
     </row>
-    <row r="512" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
@@ -34167,7 +34182,7 @@
       <c r="BL512" s="3"/>
       <c r="BM512" s="3"/>
     </row>
-    <row r="513" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
@@ -34232,7 +34247,7 @@
       <c r="BL513" s="3"/>
       <c r="BM513" s="3"/>
     </row>
-    <row r="514" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -34297,7 +34312,7 @@
       <c r="BL514" s="3"/>
       <c r="BM514" s="3"/>
     </row>
-    <row r="515" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
@@ -34362,7 +34377,7 @@
       <c r="BL515" s="3"/>
       <c r="BM515" s="3"/>
     </row>
-    <row r="516" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
@@ -34427,7 +34442,7 @@
       <c r="BL516" s="3"/>
       <c r="BM516" s="3"/>
     </row>
-    <row r="517" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
@@ -34492,7 +34507,7 @@
       <c r="BL517" s="3"/>
       <c r="BM517" s="3"/>
     </row>
-    <row r="518" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
@@ -34557,7 +34572,7 @@
       <c r="BL518" s="3"/>
       <c r="BM518" s="3"/>
     </row>
-    <row r="519" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
@@ -34622,7 +34637,7 @@
       <c r="BL519" s="3"/>
       <c r="BM519" s="3"/>
     </row>
-    <row r="520" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
@@ -34687,7 +34702,7 @@
       <c r="BL520" s="3"/>
       <c r="BM520" s="3"/>
     </row>
-    <row r="521" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
@@ -34752,7 +34767,7 @@
       <c r="BL521" s="3"/>
       <c r="BM521" s="3"/>
     </row>
-    <row r="522" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
@@ -34817,7 +34832,7 @@
       <c r="BL522" s="3"/>
       <c r="BM522" s="3"/>
     </row>
-    <row r="523" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
@@ -34882,7 +34897,7 @@
       <c r="BL523" s="3"/>
       <c r="BM523" s="3"/>
     </row>
-    <row r="524" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
@@ -34947,7 +34962,7 @@
       <c r="BL524" s="3"/>
       <c r="BM524" s="3"/>
     </row>
-    <row r="525" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
@@ -35012,7 +35027,7 @@
       <c r="BL525" s="3"/>
       <c r="BM525" s="3"/>
     </row>
-    <row r="526" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -35077,7 +35092,7 @@
       <c r="BL526" s="3"/>
       <c r="BM526" s="3"/>
     </row>
-    <row r="527" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
@@ -35142,7 +35157,7 @@
       <c r="BL527" s="3"/>
       <c r="BM527" s="3"/>
     </row>
-    <row r="528" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
@@ -35207,7 +35222,7 @@
       <c r="BL528" s="3"/>
       <c r="BM528" s="3"/>
     </row>
-    <row r="529" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
@@ -35272,7 +35287,7 @@
       <c r="BL529" s="3"/>
       <c r="BM529" s="3"/>
     </row>
-    <row r="530" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
@@ -35337,7 +35352,7 @@
       <c r="BL530" s="3"/>
       <c r="BM530" s="3"/>
     </row>
-    <row r="531" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -35402,7 +35417,7 @@
       <c r="BL531" s="3"/>
       <c r="BM531" s="3"/>
     </row>
-    <row r="532" spans="3:65" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:65" x14ac:dyDescent="0.2">
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
